--- a/docentes/Vazquez Galarza Maria Miriam - Estadisticos 20242.xlsx
+++ b/docentes/Vazquez Galarza Maria Miriam - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -76,25 +76,16 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>ZAVALA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>DELGADO</t>
   </si>
   <si>
     <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>EMILIANO GERARDO</t>
   </si>
   <si>
     <t>AXEL GAEL</t>
@@ -650,16 +641,19 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>97.56</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -673,16 +667,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>97.22</v>
+      </c>
+      <c r="H3">
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -696,16 +693,19 @@
         <v>17</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -719,16 +719,19 @@
         <v>24</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +799,7 @@
         <v>97.56</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -822,7 +825,7 @@
         <v>97.22</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -848,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -865,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>95.83</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +887,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,22 +922,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920205</v>
+        <v>22330051920176</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -942,47 +945,24 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920176</v>
+        <v>22330051920095</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920095</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
